--- a/presentation/Results_Final.xlsx
+++ b/presentation/Results_Final.xlsx
@@ -83,7 +83,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -191,7 +191,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F26" activeCellId="0" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
